--- a/responses.xlsx
+++ b/responses.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-03 23:05:50</t>
+          <t>2024-11-03 23:06:32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,22 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>كويتي</t>
+          <t>قطري</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21-35 سنة</t>
+          <t>36-46 سنة</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ذكر</t>
+          <t>أنثى</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>لا</t>
+          <t>نعم</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,39 @@
           <t>نعم</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11-03 23:10:03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mesha95</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>عُماني</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16-20 سنة</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ذكر</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>نعم</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,39 @@
           <t>نعم</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-11-03 23:10:50</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mesha95</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>بحريني</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10-15 سنة</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ذكر</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>نعم</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,39 @@
           <t>لا</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11-03 23:33:20</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mesha95</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>قطري</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16-20 سنة</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ذكر</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>نعم</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
